--- a/biology/Zoologie/Cepheuptychia_cephus/Cepheuptychia_cephus.xlsx
+++ b/biology/Zoologie/Cepheuptychia_cephus/Cepheuptychia_cephus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cepheuptychia cephus est une espèce de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae et du genre Cepheuptychia.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cepheuptychia cephus a été décrit par Johan Christian Fabricius en 1775 sous le nom de Papilio cephus.
-Synonyme : Papilio doris Cramer, 1775; Papilio lysidice Cramer, 1777; Satyrus doritis Godart, [1824]; Euptychia jamaryensis Ribeiro, 1931[1].
-Noms vernaculaires
-Cepheuptychia cephus se nomme Cephus Blue Ringlet ou Cephus Satyr en anglais[2],[3].
+Synonyme : Papilio doris Cramer, 1775; Papilio lysidice Cramer, 1777; Satyrus doritis Godart, ; Euptychia jamaryensis Ribeiro, 1931.
 </t>
         </is>
       </c>
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cepheuptychia cephus est un papillon qui présente un dimorphisme sexuel chez la femelle le dessus est marron, chez le mâle le dessus est bleu marqué de veines marron et d'une bordure marron au bord externe et au bord costal de l'aile antérieure. 
-Le revers est bleu finement rayé de cinq lignes marron grisé chez le mâle comme chez la femelle. Il est orné d'un ocelle noir pupillé à l'apex des ailes antérieures et aux ailes postérieures d'un ou deux à l'apex et de deux proches de l'angle anal[4].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cepheuptychia cephus se nomme Cephus Blue Ringlet ou Cephus Satyr en anglais,.
 </t>
         </is>
       </c>
@@ -574,12 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa biologie n'est pas connue[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cepheuptychia cephus est un papillon qui présente un dimorphisme sexuel chez la femelle le dessus est marron, chez le mâle le dessus est bleu marqué de veines marron et d'une bordure marron au bord externe et au bord costal de l'aile antérieure. 
+Le revers est bleu finement rayé de cinq lignes marron grisé chez le mâle comme chez la femelle. Il est orné d'un ocelle noir pupillé à l'apex des ailes antérieures et aux ailes postérieures d'un ou deux à l'apex et de deux proches de l'angle anal.
 </t>
         </is>
       </c>
@@ -605,16 +625,121 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa biologie n'est pas connue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cepheuptychia_cephus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cepheuptychia_cephus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cepheuptychia cephus est présent au Brésil, au Pérou, en Colombie, au Surinam, en Guyana et en Guyane[1],[2],[4].
-Biotope
-Il réside en sous-bois[4].
-Protection
-Pas de statut de protection particulier
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cepheuptychia cephus est présent au Brésil, au Pérou, en Colombie, au Surinam, en Guyana et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cepheuptychia_cephus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cepheuptychia_cephus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en sous-bois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cepheuptychia_cephus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cepheuptychia_cephus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 Sur les autres projets Wikimedia :
 Cepheuptychia cephus, sur Wikimedia CommonsCepheuptychia cephus, sur Wikispecies
 </t>
